--- a/tracked-products.xlsx
+++ b/tracked-products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Informe\Informe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4744145A-11DC-49A4-B992-BFF478C68D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8E5AA9-A3FB-4781-9EE7-69E1AFA9D9C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{273E6688-1F62-448A-8F4C-7CC652F3899F}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tracked!$A$1:$C$291</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44ECEBBF-9850-4CF2-B9A5-2C454556EA9E}">
   <dimension ref="A1:D291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:D264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
